--- a/state_results/Lakes.xlsx
+++ b/state_results/Lakes.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -10485,7 +10485,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -11997,7 +11997,7 @@
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -13093,7 +13093,7 @@
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13673,7 @@
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -13757,7 +13757,7 @@
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -14769,7 +14769,7 @@
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -14853,7 +14853,7 @@
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -15353,7 +15353,7 @@
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -15849,7 +15849,7 @@
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -15933,7 +15933,7 @@
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -16945,7 +16945,7 @@
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -17029,7 +17029,7 @@
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -17445,7 +17445,7 @@
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -17529,7 +17529,7 @@
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -18525,7 +18525,7 @@
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -18609,7 +18609,7 @@
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -19621,7 +19621,7 @@
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -19705,7 +19705,7 @@
       </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="V237" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -20557,7 +20557,7 @@
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -20973,7 +20973,7 @@
       </c>
       <c r="V243" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -21057,7 +21057,7 @@
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -21553,7 +21553,7 @@
       </c>
       <c r="V250" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -21637,7 +21637,7 @@
       </c>
       <c r="V251" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -22649,7 +22649,7 @@
       </c>
       <c r="V263" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -22733,7 +22733,7 @@
       </c>
       <c r="V264" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -23149,7 +23149,7 @@
       </c>
       <c r="V269" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -23233,7 +23233,7 @@
       </c>
       <c r="V270" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
